--- a/teaching/traditional_assets/database/data/jersey/jersey_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/jersey/jersey_investments_asset_management.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ9"/>
+  <dimension ref="A1:AQ8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.03095</v>
+        <v>0.135</v>
       </c>
       <c r="E2">
-        <v>0.2155</v>
+        <v>-0.104</v>
       </c>
       <c r="F2">
-        <v>0.134</v>
+        <v>-0.042</v>
       </c>
       <c r="G2">
-        <v>0.2080487958246872</v>
+        <v>0.35252771129608</v>
       </c>
       <c r="H2">
-        <v>0.2080487958246872</v>
+        <v>0.3524484778187105</v>
       </c>
       <c r="I2">
-        <v>0.2941467753549106</v>
+        <v>0.2301936727575701</v>
       </c>
       <c r="J2">
-        <v>0.2809990311556847</v>
+        <v>0.216707348124562</v>
       </c>
       <c r="K2">
-        <v>603.25</v>
+        <v>233.189</v>
       </c>
       <c r="L2">
-        <v>0.3793309438470729</v>
+        <v>0.1904780964361272</v>
       </c>
       <c r="M2">
-        <v>487.66</v>
+        <v>327.051</v>
       </c>
       <c r="N2">
-        <v>0.05870682701915321</v>
+        <v>0.07449230138483966</v>
       </c>
       <c r="O2">
-        <v>0.808387898881061</v>
+        <v>1.402514698377711</v>
       </c>
       <c r="P2">
-        <v>298.41</v>
+        <v>180.737</v>
       </c>
       <c r="Q2">
-        <v>0.03592401314601466</v>
+        <v>0.0411664085276968</v>
       </c>
       <c r="R2">
-        <v>0.4946705346042272</v>
+        <v>0.7750665768968519</v>
       </c>
       <c r="S2">
-        <v>189.25</v>
+        <v>146.314</v>
       </c>
       <c r="T2">
-        <v>0.388077759094451</v>
+        <v>0.4473736512042464</v>
       </c>
       <c r="U2">
-        <v>304.411</v>
+        <v>328.818</v>
       </c>
       <c r="V2">
-        <v>0.0366464420287238</v>
+        <v>0.07489477040816327</v>
       </c>
       <c r="W2">
-        <v>0.1188811188811189</v>
+        <v>-0.007932115875592591</v>
       </c>
       <c r="X2">
-        <v>0.05377344735767192</v>
+        <v>0.03802262921432312</v>
       </c>
       <c r="Y2">
-        <v>0.06510767152344696</v>
+        <v>-0.04595474508991572</v>
       </c>
       <c r="Z2">
-        <v>0.4287498385388911</v>
+        <v>0.7857782878386428</v>
       </c>
       <c r="AA2">
-        <v>0.1171441360787824</v>
+        <v>0.01021456981369061</v>
       </c>
       <c r="AB2">
-        <v>0.0525209477809257</v>
+        <v>0.03643585029976566</v>
       </c>
       <c r="AC2">
-        <v>0.06168212869473395</v>
+        <v>-0.02612323771483396</v>
       </c>
       <c r="AD2">
-        <v>889.325</v>
+        <v>521.087</v>
       </c>
       <c r="AE2">
-        <v>414.1219157654281</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1303.446915765428</v>
+        <v>521.087</v>
       </c>
       <c r="AG2">
-        <v>999.0359157654279</v>
+        <v>192.269</v>
       </c>
       <c r="AH2">
-        <v>0.135632361002424</v>
+        <v>0.1060955673913013</v>
       </c>
       <c r="AI2">
-        <v>0.2242610113294632</v>
+        <v>0.1988512059018037</v>
       </c>
       <c r="AJ2">
-        <v>0.1073570026925972</v>
+        <v>0.04195568128529466</v>
       </c>
       <c r="AK2">
-        <v>0.1813864490938698</v>
+        <v>0.08389911457544698</v>
       </c>
       <c r="AL2">
-        <v>18.842</v>
+        <v>9.108000000000001</v>
       </c>
       <c r="AM2">
-        <v>11.467</v>
+        <v>2.617000000000001</v>
       </c>
       <c r="AN2">
-        <v>2.420261260035379</v>
+        <v>1.296952545933326</v>
       </c>
       <c r="AO2">
-        <v>26.98312281074196</v>
+        <v>30.9409310496267</v>
       </c>
       <c r="AP2">
-        <v>2.718834986434693</v>
+        <v>0.4785453658488021</v>
       </c>
       <c r="AQ2">
-        <v>44.3373157757042</v>
+        <v>107.6843714176538</v>
       </c>
     </row>
     <row r="3">
@@ -719,7 +719,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TMT Investments PLC (AIM:TMT)</t>
+          <t>Sanne Group plc (LSE:SNN)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -727,104 +727,119 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D3">
+        <v>0.333</v>
+      </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.2824687199230029</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.2820019249278152</v>
       </c>
       <c r="I3">
-        <v>0.8907849829351536</v>
+        <v>0.1732435033686237</v>
       </c>
       <c r="J3">
-        <v>0.8907849829351536</v>
+        <v>0.1247192813602823</v>
       </c>
       <c r="K3">
-        <v>26.3</v>
+        <v>18.9</v>
       </c>
       <c r="L3">
-        <v>0.8976109215017065</v>
+        <v>0.09095283926852742</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>25.414</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.02075967979088384</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>1.344656084656085</v>
       </c>
       <c r="P3">
-        <v>-0</v>
+        <v>25.3</v>
       </c>
       <c r="Q3">
-        <v>-0</v>
+        <v>0.02066655775200131</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>1.338624338624339</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.1140000000000008</v>
+      </c>
+      <c r="T3">
+        <v>0.004485716534193781</v>
       </c>
       <c r="U3">
-        <v>22.4</v>
+        <v>63.8</v>
       </c>
       <c r="V3">
-        <v>0.1806451612903226</v>
+        <v>0.05211566737461198</v>
       </c>
       <c r="W3">
-        <v>0.3211233211233211</v>
+        <v>0.08080376229157758</v>
       </c>
       <c r="X3">
-        <v>0.05157419919816474</v>
+        <v>0.03992933431246774</v>
       </c>
       <c r="Y3">
-        <v>0.2695491219251563</v>
+        <v>0.04087442797910985</v>
       </c>
       <c r="Z3">
-        <v>0.3817589576547231</v>
+        <v>1.821209465381244</v>
       </c>
       <c r="AA3">
-        <v>0.3400651465798046</v>
+        <v>0.2271399357288927</v>
       </c>
       <c r="AB3">
-        <v>0.05157419919816474</v>
+        <v>0.03675940427990798</v>
       </c>
       <c r="AC3">
-        <v>0.2884909473816398</v>
+        <v>0.1903805314489848</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="AG3">
-        <v>-22.4</v>
+        <v>157.2</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.152920011071132</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.4933035714285715</v>
       </c>
       <c r="AJ3">
-        <v>-0.2204724409448819</v>
+        <v>0.1137975966410887</v>
       </c>
       <c r="AK3">
-        <v>-0.2657176749703439</v>
+        <v>0.4091618948464341</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>5.66</v>
       </c>
       <c r="AM3">
-        <v>-0.175</v>
+        <v>5.472</v>
+      </c>
+      <c r="AN3">
+        <v>3.689482470784641</v>
+      </c>
+      <c r="AO3">
+        <v>6.360424028268551</v>
+      </c>
+      <c r="AP3">
+        <v>2.624373956594324</v>
       </c>
       <c r="AQ3">
-        <v>-149.1428571428572</v>
+        <v>6.578947368421052</v>
       </c>
     </row>
     <row r="4">
@@ -835,7 +850,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sanne Group plc (LSE:SNN)</t>
+          <t>Man Group plc (LSE:EMG)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -843,116 +858,125 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D4">
+        <v>-0.0482</v>
+      </c>
+      <c r="E4">
+        <v>-0.104</v>
+      </c>
+      <c r="F4">
+        <v>-0.042</v>
+      </c>
       <c r="G4">
-        <v>0.2973245835436648</v>
+        <v>0.3734939759036144</v>
       </c>
       <c r="H4">
-        <v>0.2973245835436648</v>
+        <v>0.3734939759036144</v>
       </c>
       <c r="I4">
-        <v>0.1556722281245015</v>
+        <v>0.2570281124497992</v>
       </c>
       <c r="J4">
-        <v>0.1116661826849779</v>
+        <v>0.2386689615605278</v>
       </c>
       <c r="K4">
-        <v>16.6</v>
+        <v>234</v>
       </c>
       <c r="L4">
-        <v>0.08379606259464918</v>
+        <v>0.2349397590361446</v>
       </c>
       <c r="M4">
-        <v>25.65</v>
+        <v>287</v>
       </c>
       <c r="N4">
-        <v>0.01987755734655921</v>
+        <v>0.1067430356677948</v>
       </c>
       <c r="O4">
-        <v>1.545180722891566</v>
+        <v>1.226495726495727</v>
       </c>
       <c r="P4">
-        <v>25.2</v>
+        <v>147</v>
       </c>
       <c r="Q4">
-        <v>0.01952882827030378</v>
+        <v>0.05467326217130956</v>
       </c>
       <c r="R4">
-        <v>1.518072289156626</v>
+        <v>0.6282051282051282</v>
       </c>
       <c r="S4">
-        <v>0.4499999999999993</v>
+        <v>140</v>
       </c>
       <c r="T4">
-        <v>0.01754385964912278</v>
+        <v>0.4878048780487805</v>
       </c>
       <c r="U4">
-        <v>56.2</v>
+        <v>236</v>
       </c>
       <c r="V4">
-        <v>0.04355238685678859</v>
+        <v>0.08777476103693235</v>
       </c>
       <c r="W4">
-        <v>0.07004219409282701</v>
+        <v>0.1482889733840304</v>
       </c>
       <c r="X4">
-        <v>0.05756173654119173</v>
+        <v>0.03773515214231193</v>
       </c>
       <c r="Y4">
-        <v>0.01248045755163528</v>
+        <v>0.1105538212417185</v>
       </c>
       <c r="Z4">
-        <v>1.407393460136931</v>
+        <v>0.848381601362862</v>
       </c>
       <c r="AA4">
-        <v>0.1571582552292937</v>
+        <v>0.202482355804332</v>
       </c>
       <c r="AB4">
-        <v>0.05483370581261576</v>
+        <v>0.03611229631962334</v>
       </c>
       <c r="AC4">
-        <v>0.102324549416678</v>
+        <v>0.1663700594847086</v>
       </c>
       <c r="AD4">
-        <v>176.9</v>
+        <v>258</v>
       </c>
       <c r="AE4">
-        <v>61.75665804268127</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>238.6566580426813</v>
+        <v>258</v>
       </c>
       <c r="AG4">
-        <v>182.4566580426813</v>
+        <v>22</v>
       </c>
       <c r="AH4">
-        <v>0.1560809776324322</v>
+        <v>0.0875555706383412</v>
       </c>
       <c r="AI4">
-        <v>0.5050328970735311</v>
+        <v>0.1405228758169935</v>
       </c>
       <c r="AJ4">
-        <v>0.1238794400299299</v>
+        <v>0.008115984800973919</v>
       </c>
       <c r="AK4">
-        <v>0.4382220255595802</v>
+        <v>0.01375</v>
       </c>
       <c r="AL4">
-        <v>3.78</v>
+        <v>1</v>
       </c>
       <c r="AM4">
-        <v>3.58</v>
+        <v>-5</v>
       </c>
       <c r="AN4">
-        <v>2.509575826358349</v>
+        <v>0.7565982404692082</v>
       </c>
       <c r="AO4">
-        <v>9.523809523809524</v>
+        <v>256</v>
       </c>
       <c r="AP4">
-        <v>2.588404852357516</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="AQ4">
-        <v>10.05586592178771</v>
+        <v>-51.2</v>
       </c>
     </row>
     <row r="5">
@@ -963,7 +987,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3i Infrastructure plc (LSE:3IN)</t>
+          <t>MJ Hudson Group plc (AIM:MJH)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -971,116 +995,113 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D5">
-        <v>0.0737</v>
-      </c>
-      <c r="E5">
-        <v>0.027</v>
-      </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.03181159420289855</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.03181159420289855</v>
       </c>
       <c r="I5">
-        <v>0.7840023966446974</v>
+        <v>0.001956521739130435</v>
       </c>
       <c r="J5">
-        <v>0.7840023966446974</v>
+        <v>0.001956521739130435</v>
       </c>
       <c r="K5">
-        <v>256.4</v>
+        <v>-8.92</v>
       </c>
       <c r="L5">
-        <v>0.768124625524266</v>
+        <v>-0.3231884057971015</v>
       </c>
       <c r="M5">
-        <v>86</v>
+        <v>-0</v>
       </c>
       <c r="N5">
-        <v>0.02473396606269773</v>
+        <v>-0</v>
       </c>
       <c r="O5">
-        <v>0.3354134165366615</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>86</v>
+        <v>-0</v>
       </c>
       <c r="Q5">
-        <v>0.02473396606269773</v>
+        <v>-0</v>
       </c>
       <c r="R5">
-        <v>0.3354134165366615</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
       <c r="U5">
-        <v>7.38</v>
+        <v>16.6</v>
       </c>
       <c r="V5">
-        <v>0.002122519413287316</v>
+        <v>0.1474245115452931</v>
       </c>
       <c r="W5">
-        <v>0.1071055599649108</v>
+        <v>-0.9019211324570272</v>
       </c>
       <c r="X5">
-        <v>0.05377344735767192</v>
+        <v>0.03831010628633431</v>
       </c>
       <c r="Y5">
-        <v>0.05333211260723889</v>
+        <v>-0.9402312387433616</v>
       </c>
       <c r="Z5">
-        <v>0.1494180841539839</v>
+        <v>10.82352941176472</v>
       </c>
       <c r="AA5">
-        <v>0.1171441360787824</v>
+        <v>0.02117647058823532</v>
       </c>
       <c r="AB5">
-        <v>0.0525209477809257</v>
+        <v>0.03743011888674538</v>
       </c>
       <c r="AC5">
-        <v>0.06462318829785674</v>
+        <v>-0.01625364829851007</v>
       </c>
       <c r="AD5">
-        <v>236.2</v>
+        <v>13.3</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>236.2</v>
+        <v>13.3</v>
       </c>
       <c r="AG5">
-        <v>228.82</v>
+        <v>-3.300000000000001</v>
       </c>
       <c r="AH5">
-        <v>0.06361090164817408</v>
+        <v>0.1056393963463066</v>
       </c>
       <c r="AI5">
-        <v>0.088660335572989</v>
+        <v>0.2074882995319813</v>
       </c>
       <c r="AJ5">
-        <v>0.06174611826802165</v>
+        <v>-0.030192131747484</v>
       </c>
       <c r="AK5">
-        <v>0.08612876027582883</v>
+        <v>-0.06947368421052633</v>
       </c>
       <c r="AL5">
-        <v>2.58</v>
+        <v>1.15</v>
       </c>
       <c r="AM5">
-        <v>2.58</v>
+        <v>1.15</v>
+      </c>
+      <c r="AN5">
+        <v>15.14806378132119</v>
       </c>
       <c r="AO5">
-        <v>101.4341085271318</v>
+        <v>0.04695652173913044</v>
+      </c>
+      <c r="AP5">
+        <v>-3.758542141230069</v>
       </c>
       <c r="AQ5">
-        <v>101.4341085271318</v>
+        <v>0.04695652173913044</v>
       </c>
     </row>
     <row r="6">
@@ -1091,7 +1112,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Man Group plc (LSE:EMG)</t>
+          <t>TMT Investments PLC (AIM:TMT)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1100,124 +1121,109 @@
         </is>
       </c>
       <c r="D6">
-        <v>-0.0118</v>
-      </c>
-      <c r="E6">
-        <v>0.404</v>
-      </c>
-      <c r="F6">
-        <v>0.134</v>
+        <v>0.135</v>
       </c>
       <c r="G6">
-        <v>0.2782874617737003</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.2782874617737003</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1350937293123859</v>
+        <v>-0.05779816513761468</v>
       </c>
       <c r="J6">
-        <v>0.131013717353287</v>
+        <v>-0.05779816513761468</v>
       </c>
       <c r="K6">
-        <v>289</v>
+        <v>0.246</v>
       </c>
       <c r="L6">
-        <v>0.2945973496432212</v>
+        <v>0.2256880733944954</v>
       </c>
       <c r="M6">
-        <v>347</v>
+        <v>0.037</v>
       </c>
       <c r="N6">
-        <v>0.1112179487179487</v>
+        <v>0.0001589347079037801</v>
       </c>
       <c r="O6">
-        <v>1.200692041522491</v>
+        <v>0.1504065040650406</v>
       </c>
       <c r="P6">
-        <v>179</v>
+        <v>0.037</v>
       </c>
       <c r="Q6">
-        <v>0.05737179487179487</v>
+        <v>0.0001589347079037801</v>
       </c>
       <c r="R6">
-        <v>0.6193771626297578</v>
+        <v>0.1504065040650406</v>
       </c>
       <c r="S6">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.484149855907781</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>218</v>
+        <v>9.19</v>
       </c>
       <c r="V6">
-        <v>0.06987179487179487</v>
+        <v>0.03947594501718213</v>
       </c>
       <c r="W6">
-        <v>0.1813048933500627</v>
+        <v>0.002305529522024367</v>
       </c>
       <c r="X6">
-        <v>0.05995170037739352</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="Y6">
-        <v>0.1213531929726692</v>
+        <v>-0.0329399666482794</v>
       </c>
       <c r="Z6">
-        <v>0.897229899222534</v>
+        <v>0.0129300118623962</v>
       </c>
       <c r="AA6">
-        <v>0.1175494244176593</v>
+        <v>-0.0007473309608540924</v>
       </c>
       <c r="AB6">
-        <v>0.05586729572292534</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AC6">
-        <v>0.06168212869473395</v>
+        <v>-0.03599282713115786</v>
       </c>
       <c r="AD6">
-        <v>455</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>352.3652577227468</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>807.3652577227468</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>589.3652577227468</v>
+        <v>-9.19</v>
       </c>
       <c r="AH6">
-        <v>0.2055742730155156</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.3384660923977403</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.1588857437254831</v>
+        <v>-0.04109834086132105</v>
       </c>
       <c r="AK6">
-        <v>0.2719270578056573</v>
+        <v>-0.09998911979109999</v>
       </c>
       <c r="AL6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>3</v>
-      </c>
-      <c r="AN6">
-        <v>1.526845637583893</v>
-      </c>
-      <c r="AO6">
-        <v>16.8</v>
-      </c>
-      <c r="AP6">
-        <v>1.977735764170291</v>
+        <v>-0.303</v>
       </c>
       <c r="AQ6">
-        <v>56</v>
+        <v>0.2079207920792079</v>
       </c>
     </row>
     <row r="7">
@@ -1228,7 +1234,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EJF Investments Limited (LSE:EJFI)</t>
+          <t>Westmount Energy Limited (AIM:WTE)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1236,110 +1242,92 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0.872037914691943</v>
-      </c>
-      <c r="J7">
-        <v>0.872037914691943</v>
-      </c>
       <c r="K7">
-        <v>17</v>
-      </c>
-      <c r="L7">
-        <v>0.8056872037914692</v>
+        <v>-0.137</v>
       </c>
       <c r="M7">
-        <v>29.01</v>
+        <v>-0</v>
       </c>
       <c r="N7">
-        <v>0.2038650737877723</v>
+        <v>-0</v>
       </c>
       <c r="O7">
-        <v>1.706470588235294</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>8.210000000000001</v>
+        <v>-0</v>
       </c>
       <c r="Q7">
-        <v>0.05769501054111034</v>
+        <v>-0</v>
       </c>
       <c r="R7">
-        <v>0.4829411764705883</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>20.8</v>
-      </c>
-      <c r="T7">
-        <v>0.7169941399517408</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>0.351</v>
+        <v>3.02</v>
       </c>
       <c r="V7">
-        <v>0.002466619817287421</v>
+        <v>0.08779069767441861</v>
       </c>
       <c r="W7">
-        <v>0.1188811188811189</v>
+        <v>-0.01816976127320955</v>
       </c>
       <c r="X7">
-        <v>0.05621533527435982</v>
+        <v>0.03561280595620312</v>
       </c>
       <c r="Y7">
-        <v>0.06266578360675906</v>
+        <v>-0.05378256722941267</v>
       </c>
       <c r="Z7">
-        <v>0.1302075298212269</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>0.1135459027824917</v>
+        <v>-0.04477972238986119</v>
       </c>
       <c r="AB7">
-        <v>0.05344034566403112</v>
+        <v>0.03547582551934495</v>
       </c>
       <c r="AC7">
-        <v>0.06010555711846059</v>
+        <v>-0.08025554790920614</v>
       </c>
       <c r="AD7">
-        <v>20.4</v>
+        <v>0.487</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>20.4</v>
+        <v>0.487</v>
       </c>
       <c r="AG7">
-        <v>20.049</v>
+        <v>-2.533</v>
       </c>
       <c r="AH7">
-        <v>0.1253841425937308</v>
+        <v>0.01395935448734486</v>
       </c>
       <c r="AI7">
-        <v>0.116504854368932</v>
+        <v>0.02737954686006634</v>
       </c>
       <c r="AJ7">
-        <v>0.1234932152338481</v>
+        <v>-0.07948661624878402</v>
       </c>
       <c r="AK7">
-        <v>0.1147302702733635</v>
+        <v>-0.1715311166790817</v>
       </c>
       <c r="AL7">
-        <v>1.29</v>
+        <v>0.068</v>
       </c>
       <c r="AM7">
-        <v>1.29</v>
+        <v>0.068</v>
       </c>
       <c r="AO7">
-        <v>14.26356589147287</v>
+        <v>-5.455882352941176</v>
       </c>
       <c r="AQ7">
-        <v>14.26356589147287</v>
+        <v>-5.455882352941176</v>
       </c>
     </row>
     <row r="8">
@@ -1350,7 +1338,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Westmount Energy Limited (AIM:WTE)</t>
+          <t>EJF Investments Limited (LSE:EJFI)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1358,196 +1346,110 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="G8">
+        <v>-0</v>
+      </c>
+      <c r="H8">
+        <v>-0</v>
+      </c>
+      <c r="I8">
+        <v>1.187651331719128</v>
+      </c>
+      <c r="J8">
+        <v>1.187651331719128</v>
+      </c>
       <c r="K8">
-        <v>2.56</v>
+        <v>-10.9</v>
+      </c>
+      <c r="L8">
+        <v>1.319612590799031</v>
       </c>
       <c r="M8">
-        <v>-0</v>
+        <v>14.6</v>
       </c>
       <c r="N8">
-        <v>-0</v>
+        <v>0.1494370522006141</v>
       </c>
       <c r="O8">
-        <v>-0</v>
+        <v>-1.339449541284404</v>
       </c>
       <c r="P8">
-        <v>-0</v>
+        <v>8.4</v>
       </c>
       <c r="Q8">
-        <v>-0</v>
+        <v>0.08597748208802457</v>
       </c>
       <c r="R8">
-        <v>-0</v>
+        <v>-0.7706422018348624</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>6.200000000000001</v>
+      </c>
+      <c r="T8">
+        <v>0.4246575342465754</v>
       </c>
       <c r="U8">
-        <v>0.08</v>
+        <v>0.208</v>
       </c>
       <c r="V8">
-        <v>0.003864734299516909</v>
+        <v>0.002128966223132037</v>
       </c>
       <c r="W8">
-        <v>0.8619528619528619</v>
+        <v>-0.070458952811894</v>
       </c>
       <c r="X8">
-        <v>0.05286447525316405</v>
+        <v>0.04276092648370802</v>
       </c>
       <c r="Y8">
-        <v>0.8090883866996978</v>
+        <v>-0.113219879295602</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>-0.04726779552386566</v>
       </c>
       <c r="AA8">
-        <v>-0.1762863534675615</v>
+        <v>-0.05613766030134651</v>
       </c>
       <c r="AB8">
-        <v>0.05252025411549087</v>
+        <v>0.03989028982109741</v>
       </c>
       <c r="AC8">
-        <v>-0.2288066075830524</v>
+        <v>-0.09602795012244392</v>
       </c>
       <c r="AD8">
-        <v>0.825</v>
+        <v>28.3</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>0.825</v>
+        <v>28.3</v>
       </c>
       <c r="AG8">
-        <v>0.745</v>
+        <v>28.092</v>
       </c>
       <c r="AH8">
-        <v>0.03832752613240418</v>
+        <v>0.2246031746031746</v>
       </c>
       <c r="AI8">
-        <v>0.0986252241482367</v>
+        <v>0.1843648208469055</v>
       </c>
       <c r="AJ8">
-        <v>0.03474003264164141</v>
+        <v>0.2233210379038413</v>
       </c>
       <c r="AK8">
-        <v>0.08992154496077248</v>
+        <v>0.1832580956605694</v>
       </c>
       <c r="AL8">
-        <v>0.102</v>
+        <v>1.23</v>
       </c>
       <c r="AM8">
-        <v>0.102</v>
+        <v>1.23</v>
       </c>
       <c r="AO8">
-        <v>-3.862745098039216</v>
+        <v>-7.975609756097562</v>
       </c>
       <c r="AQ8">
-        <v>-3.862745098039216</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Jersey</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>MJ Hudson Group plc (AIM:MJH)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Investments &amp; Asset Management</t>
-        </is>
-      </c>
-      <c r="G9">
-        <v>-0.03851851851851852</v>
-      </c>
-      <c r="H9">
-        <v>-0.03851851851851852</v>
-      </c>
-      <c r="I9">
-        <v>-0.05148148148148148</v>
-      </c>
-      <c r="J9">
-        <v>-0.05148148148148148</v>
-      </c>
-      <c r="K9">
-        <v>-4.61</v>
-      </c>
-      <c r="L9">
-        <v>-0.1707407407407407</v>
-      </c>
-      <c r="M9">
-        <v>-0</v>
-      </c>
-      <c r="N9">
-        <v>-0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>-0</v>
-      </c>
-      <c r="Q9">
-        <v>-0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0.05157419919816474</v>
-      </c>
-      <c r="AB9">
-        <v>0.05157419919816474</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-      <c r="AL9">
-        <v>1.09</v>
-      </c>
-      <c r="AM9">
-        <v>1.09</v>
-      </c>
-      <c r="AN9">
-        <v>-0</v>
-      </c>
-      <c r="AO9">
-        <v>-1.275229357798165</v>
-      </c>
-      <c r="AP9">
-        <v>-0</v>
-      </c>
-      <c r="AQ9">
-        <v>-1.275229357798165</v>
+        <v>-7.975609756097562</v>
       </c>
     </row>
   </sheetData>
